--- a/biology/Origine et évolution du vivant/Extinction_du_Capitanien/Extinction_du_Capitanien.xlsx
+++ b/biology/Origine et évolution du vivant/Extinction_du_Capitanien/Extinction_du_Capitanien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
     Intensité des extinctions marines au cours du Phanérozoïque
 Le graphique bleu indique le pourcentage apparent (pas en nombre absolu) de genres d'animaux marins ayant disparu au cours d'un intervalle de temps. Il ne représente pas toutes les espèces marines, mais seulement les espèces marines fossiles. Les 5 plus grandes extinctions sont liées, voir les extinctions massives pour plus de détails.
 Source et information sur le graphique
-L'extinction du Capitanien était un événement d'extinction qui a précédé l'extinction Permien-Trias et s'est produit il y a environ 260 millions d'années pendant une période de diminution de la richesse en espèces et d'augmentation des taux d'extinction à la fin du Permien moyen. Il est également connu sous le nom d'extinction de la fin du Guadalupien en raison de sa reconnaissance initiale entre les séries Guadalupien et du Lopingien ; cependant, une étude stratigraphique plus raffinée suggère que des pics d'extinction dans de nombreux groupes taxonomiques se sont produits au Guadalupien, dans la seconde moitié de l'âge Capitanien[1].
+L'extinction du Capitanien était un événement d'extinction qui a précédé l'extinction Permien-Trias et s'est produit il y a environ 260 millions d'années pendant une période de diminution de la richesse en espèces et d'augmentation des taux d'extinction à la fin du Permien moyen. Il est également connu sous le nom d'extinction de la fin du Guadalupien en raison de sa reconnaissance initiale entre les séries Guadalupien et du Lopingien ; cependant, une étude stratigraphique plus raffinée suggère que des pics d'extinction dans de nombreux groupes taxonomiques se sont produits au Guadalupien, dans la seconde moitié de l'âge Capitanien.
 </t>
         </is>
       </c>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
